--- a/dist/document/dest/2020/10/khai/142_lvp.xlsx
+++ b/dist/document/dest/2020/10/khai/142_lvp.xlsx
@@ -16,13 +16,13 @@
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Khải</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Lý Văn Phái</t>
+    <t>TDV: Khải</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 142</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,34 +46,34 @@
     <t>CK</t>
   </si>
   <si>
-    <t>Sopezid</t>
-  </si>
-  <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Cardorite</t>
-  </si>
-  <si>
-    <t>Picencal</t>
-  </si>
-  <si>
-    <t>Cimrinat</t>
-  </si>
-  <si>
-    <t>Cefass</t>
-  </si>
-  <si>
-    <t>Celivite</t>
-  </si>
-  <si>
-    <t>Noraquick</t>
-  </si>
-  <si>
-    <t>Celevox</t>
-  </si>
-  <si>
-    <t>Fagendol</t>
+    <t>Sope***</t>
+  </si>
+  <si>
+    <t>Card*****</t>
+  </si>
+  <si>
+    <t>Cimr****</t>
+  </si>
+  <si>
+    <t>Cefa**</t>
+  </si>
+  <si>
+    <t>Celi****</t>
+  </si>
+  <si>
+    <t>Nora*****</t>
+  </si>
+  <si>
+    <t>Cele***</t>
+  </si>
+  <si>
+    <t>Fage****</t>
+  </si>
+  <si>
+    <t>Medi*************</t>
+  </si>
+  <si>
+    <t>Bonz****</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -608,19 +608,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="D6" s="10">
         <v>15000</v>
       </c>
       <c r="E6" s="10">
-        <v>0</v>
+        <v>14775000</v>
       </c>
       <c r="F6" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>6648750</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -631,19 +631,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="D7" s="10">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>7124000</v>
       </c>
       <c r="F7" s="10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>3205800</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="D8" s="10">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="E8" s="10">
-        <v>3198000</v>
+        <v>2880000</v>
       </c>
       <c r="F8" s="10">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="10">
-        <v>1439100</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -677,19 +677,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D9" s="10">
-        <v>2900</v>
+        <v>9000</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>495000</v>
       </c>
       <c r="F9" s="10">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
+        <v>222750</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,19 +700,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="D10" s="10">
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="10">
-        <v>960000</v>
+        <v>540000</v>
       </c>
       <c r="F10" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G10" s="10">
-        <v>403200</v>
+        <v>243000</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,19 +723,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D11" s="10">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="E11" s="10">
-        <v>0</v>
+        <v>1890000</v>
       </c>
       <c r="F11" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>831600</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -746,19 +746,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D12" s="10">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="E12" s="10">
-        <v>0</v>
+        <v>480000</v>
       </c>
       <c r="F12" s="10">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
+        <v>153600</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -769,19 +769,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D13" s="10">
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>819000</v>
       </c>
       <c r="F13" s="10">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>327600</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -792,19 +792,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D14" s="10">
-        <v>12000</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="10">
-        <v>0</v>
+        <v>624000</v>
       </c>
       <c r="F14" s="10">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" s="10">
-        <v>0</v>
+        <v>187200</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -815,19 +815,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D15" s="10">
-        <v>2600</v>
+        <v>8900</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>534000</v>
       </c>
       <c r="F15" s="10">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G15" s="10">
-        <v>0</v>
+        <v>240300</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -836,15 +836,15 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="11">
-        <v>286</v>
+        <v>2858</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>4158000</v>
+        <v>30161000</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
-        <v>1842300</v>
+        <v>13270200</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
